--- a/ExcelTestInputData/PDF.xlsx
+++ b/ExcelTestInputData/PDF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA56051-BD0A-435D-A4F6-D33CE77D543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A8B85-8E18-4DBB-A048-3BA7DF32696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDFVALUES" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
